--- a/data/01_raw/01_DataCompetencySurvey.xlsx
+++ b/data/01_raw/01_DataCompetencySurvey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glabm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glabm\Desktop\Projekt DMI\MDI-Project\data\01_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09629E25-1BD9-49F4-93AB-523DB69C79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62F3719-9065-4F25-871F-B62681D4BB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,16 +886,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="G55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="44" width="20" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="33" width="20" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="44" width="20" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
@@ -8623,6 +8628,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100FADD40CF33BB0E44B0411776AD4B1C2D" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="2f8709771d9a8b3fb6bc9c4c41c503ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4dac3f4-a10d-44df-9e11-9bb9c458aed6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57515bd8bcbb4700e513da082f6c4fbf" ns2:_="">
     <xsd:import namespace="d4dac3f4-a10d-44df-9e11-9bb9c458aed6"/>
@@ -8766,15 +8780,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8782,6 +8787,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{055DF7C1-9186-4CCD-9F92-E95626081500}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFD23490-9459-4BA3-A165-374CD9FAD40E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8799,14 +8812,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{055DF7C1-9186-4CCD-9F92-E95626081500}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9292FB75-4480-4F2D-AD43-B3B6C8B7A101}">
   <ds:schemaRefs>
